--- a/grupos/6APV - Estadisticos 20242.xlsx
+++ b/grupos/6APV - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
   <si>
     <t>Materia</t>
   </si>
@@ -143,21 +143,21 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Velasco Sánchez David</t>
+  </si>
+  <si>
+    <t>Sanchez Contreras Jose Octavio</t>
+  </si>
+  <si>
+    <t>Valerio González Valeria</t>
+  </si>
+  <si>
+    <t>Salazar Rivas Eduardo</t>
+  </si>
+  <si>
     <t>Merino Altamira Violeta</t>
   </si>
   <si>
-    <t>Velasco Sánchez David</t>
-  </si>
-  <si>
-    <t>Valerio González Valeria</t>
-  </si>
-  <si>
-    <t>Sanchez Contreras Jose Octavio</t>
-  </si>
-  <si>
-    <t>Salazar Rivas Eduardo</t>
-  </si>
-  <si>
     <t>Vazquez Galarza Maria Miriam</t>
   </si>
   <si>
@@ -179,40 +179,22 @@
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
     <t>SOTO</t>
   </si>
   <si>
-    <t>GALINDO</t>
-  </si>
-  <si>
     <t>JOSE</t>
   </si>
   <si>
-    <t>MONTIEL</t>
-  </si>
-  <si>
     <t>IGNACIO</t>
   </si>
   <si>
     <t>JONATAN GILBERTO</t>
   </si>
   <si>
-    <t>BRANDON</t>
-  </si>
-  <si>
     <t>HECTOR MISAEL</t>
-  </si>
-  <si>
-    <t>CESAR DANIEL</t>
   </si>
 </sst>
 </file>
@@ -726,19 +708,19 @@
         <v>-1</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -774,7 +756,7 @@
         <v>6</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -803,19 +785,19 @@
         <v>-1</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -842,16 +824,16 @@
         <v>10</v>
       </c>
       <c r="V5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X5">
         <v>10</v>
       </c>
       <c r="Y5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -880,19 +862,19 @@
         <v>-1</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -919,10 +901,10 @@
         <v>9</v>
       </c>
       <c r="V6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X6">
         <v>10</v>
@@ -957,19 +939,19 @@
         <v>-1</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -999,13 +981,13 @@
         <v>9</v>
       </c>
       <c r="W7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X7">
         <v>9</v>
       </c>
       <c r="Y7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1034,19 +1016,19 @@
         <v>-1</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1073,7 +1055,7 @@
         <v>9</v>
       </c>
       <c r="V8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W8">
         <v>9</v>
@@ -1111,19 +1093,19 @@
         <v>-1</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1147,7 +1129,7 @@
         <v>7</v>
       </c>
       <c r="U9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V9">
         <v>8</v>
@@ -1159,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="Y9">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1188,19 +1170,19 @@
         <v>-1</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1224,19 +1206,19 @@
         <v>8</v>
       </c>
       <c r="U10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X10">
         <v>10</v>
       </c>
       <c r="Y10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1265,19 +1247,19 @@
         <v>-1</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1304,16 +1286,16 @@
         <v>10</v>
       </c>
       <c r="V11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X11">
         <v>10</v>
       </c>
       <c r="Y11">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1342,19 +1324,19 @@
         <v>-1</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1384,13 +1366,13 @@
         <v>5</v>
       </c>
       <c r="W12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X12">
         <v>6</v>
       </c>
       <c r="Y12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1419,19 +1401,19 @@
         <v>-1</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1458,7 +1440,7 @@
         <v>10</v>
       </c>
       <c r="V13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W13">
         <v>10</v>
@@ -1496,19 +1478,19 @@
         <v>-1</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1541,7 +1523,7 @@
         <v>10</v>
       </c>
       <c r="X14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y14">
         <v>10</v>
@@ -1573,19 +1555,19 @@
         <v>-1</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1609,19 +1591,19 @@
         <v>7</v>
       </c>
       <c r="U15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X15">
         <v>10</v>
       </c>
       <c r="Y15">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1650,19 +1632,19 @@
         <v>-1</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1689,16 +1671,16 @@
         <v>10</v>
       </c>
       <c r="V16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W16">
         <v>9</v>
       </c>
       <c r="X16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y16">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1727,19 +1709,19 @@
         <v>-1</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1766,7 +1748,7 @@
         <v>9</v>
       </c>
       <c r="V17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W17">
         <v>9</v>
@@ -1775,7 +1757,7 @@
         <v>10</v>
       </c>
       <c r="Y17">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1804,19 +1786,19 @@
         <v>-1</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1846,13 +1828,13 @@
         <v>5</v>
       </c>
       <c r="W18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1881,19 +1863,19 @@
         <v>-1</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1917,19 +1899,19 @@
         <v>7</v>
       </c>
       <c r="U19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X19">
         <v>7</v>
       </c>
       <c r="Y19">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1958,19 +1940,19 @@
         <v>-1</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -1994,19 +1976,19 @@
         <v>7</v>
       </c>
       <c r="U20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W20">
         <v>6</v>
       </c>
       <c r="X20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y20">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2148,16 +2130,16 @@
         <v>96.40000000000001</v>
       </c>
       <c r="I4">
-        <v>80</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="J4">
         <v>100</v>
       </c>
       <c r="K4">
-        <v>82.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="L4">
-        <v>92</v>
+        <v>87.2</v>
       </c>
       <c r="M4">
         <v>100</v>
@@ -2166,16 +2148,16 @@
         <v>96.40000000000001</v>
       </c>
       <c r="O4">
-        <v>80</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="P4">
         <v>100</v>
       </c>
       <c r="Q4">
-        <v>82.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="R4">
-        <v>92</v>
+        <v>87.2</v>
       </c>
       <c r="S4">
         <v>100</v>
@@ -2266,7 +2248,7 @@
         <v>100</v>
       </c>
       <c r="I6">
-        <v>93.3</v>
+        <v>97</v>
       </c>
       <c r="J6">
         <v>100</v>
@@ -2284,7 +2266,7 @@
         <v>100</v>
       </c>
       <c r="O6">
-        <v>93.3</v>
+        <v>97</v>
       </c>
       <c r="P6">
         <v>100</v>
@@ -2325,16 +2307,16 @@
         <v>96.40000000000001</v>
       </c>
       <c r="I7">
-        <v>93.3</v>
+        <v>97</v>
       </c>
       <c r="J7">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="K7">
-        <v>92.90000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="M7">
         <v>100</v>
@@ -2343,16 +2325,16 @@
         <v>96.40000000000001</v>
       </c>
       <c r="O7">
-        <v>93.3</v>
+        <v>97</v>
       </c>
       <c r="P7">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="Q7">
-        <v>92.90000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="R7">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="S7">
         <v>100</v>
@@ -2390,7 +2372,7 @@
         <v>100</v>
       </c>
       <c r="K8">
-        <v>92.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -2408,7 +2390,7 @@
         <v>100</v>
       </c>
       <c r="Q8">
-        <v>92.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="R8">
         <v>100</v>
@@ -2449,7 +2431,7 @@
         <v>100</v>
       </c>
       <c r="K9">
-        <v>92.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -2467,7 +2449,7 @@
         <v>100</v>
       </c>
       <c r="Q9">
-        <v>92.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="R9">
         <v>100</v>
@@ -2623,13 +2605,13 @@
         <v>100</v>
       </c>
       <c r="J12">
-        <v>84</v>
+        <v>92.7</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>93.3</v>
       </c>
       <c r="L12">
-        <v>96</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="M12">
         <v>100</v>
@@ -2641,13 +2623,13 @@
         <v>100</v>
       </c>
       <c r="P12">
-        <v>84</v>
+        <v>92.7</v>
       </c>
       <c r="Q12">
-        <v>100</v>
+        <v>93.3</v>
       </c>
       <c r="R12">
-        <v>96</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="S12">
         <v>100</v>
@@ -2682,7 +2664,7 @@
         <v>100</v>
       </c>
       <c r="J13">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="K13">
         <v>100</v>
@@ -2700,7 +2682,7 @@
         <v>100</v>
       </c>
       <c r="P13">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="Q13">
         <v>100</v>
@@ -2803,7 +2785,7 @@
         <v>100</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>93.3</v>
       </c>
       <c r="L15">
         <v>100</v>
@@ -2821,7 +2803,7 @@
         <v>100</v>
       </c>
       <c r="Q15">
-        <v>100</v>
+        <v>93.3</v>
       </c>
       <c r="R15">
         <v>100</v>
@@ -2859,13 +2841,13 @@
         <v>100</v>
       </c>
       <c r="J16">
-        <v>88</v>
+        <v>94.5</v>
       </c>
       <c r="K16">
         <v>100</v>
       </c>
       <c r="L16">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="M16">
         <v>100</v>
@@ -2877,13 +2859,13 @@
         <v>100</v>
       </c>
       <c r="P16">
-        <v>88</v>
+        <v>94.5</v>
       </c>
       <c r="Q16">
         <v>100</v>
       </c>
       <c r="R16">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="S16">
         <v>100</v>
@@ -2915,7 +2897,7 @@
         <v>96.40000000000001</v>
       </c>
       <c r="I17">
-        <v>93.3</v>
+        <v>97</v>
       </c>
       <c r="J17">
         <v>100</v>
@@ -2933,7 +2915,7 @@
         <v>96.40000000000001</v>
       </c>
       <c r="O17">
-        <v>93.3</v>
+        <v>97</v>
       </c>
       <c r="P17">
         <v>100</v>
@@ -2977,13 +2959,13 @@
         <v>100</v>
       </c>
       <c r="J18">
-        <v>88</v>
+        <v>94.5</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>93.3</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>91.5</v>
       </c>
       <c r="M18">
         <v>100</v>
@@ -2995,13 +2977,13 @@
         <v>100</v>
       </c>
       <c r="P18">
-        <v>88</v>
+        <v>94.5</v>
       </c>
       <c r="Q18">
-        <v>100</v>
+        <v>93.3</v>
       </c>
       <c r="R18">
-        <v>100</v>
+        <v>91.5</v>
       </c>
       <c r="S18">
         <v>100</v>
@@ -3036,13 +3018,13 @@
         <v>100</v>
       </c>
       <c r="J19">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="K19">
         <v>100</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>91.5</v>
       </c>
       <c r="M19">
         <v>100</v>
@@ -3054,13 +3036,13 @@
         <v>100</v>
       </c>
       <c r="P19">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="Q19">
         <v>100</v>
       </c>
       <c r="R19">
-        <v>100</v>
+        <v>91.5</v>
       </c>
       <c r="S19">
         <v>100</v>
@@ -3101,7 +3083,7 @@
         <v>100</v>
       </c>
       <c r="L20">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="M20">
         <v>100</v>
@@ -3119,7 +3101,7 @@
         <v>100</v>
       </c>
       <c r="R20">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="S20">
         <v>100</v>
@@ -3182,7 +3164,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
@@ -3191,19 +3173,19 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>70.59999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="G2" s="2">
-        <v>29.4</v>
+        <v>17.6</v>
       </c>
       <c r="H2">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3214,7 +3196,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -3223,19 +3205,19 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>76.5</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="G3" s="2">
-        <v>23.5</v>
+        <v>5.9</v>
       </c>
       <c r="H3">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3278,7 +3260,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
@@ -3287,19 +3269,19 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>94.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3310,7 +3292,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -3331,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3363,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3416,7 +3398,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3457,16 +3439,16 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -3480,16 +3462,16 @@
         <v>51</v>
       </c>
       <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -3503,10 +3485,10 @@
         <v>51</v>
       </c>
       <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
         <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -3520,19 +3502,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>21330051920396</v>
+        <v>22330051920405</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -3543,162 +3525,24 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>22330051920405</v>
+        <v>22330051920279</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>22330051920405</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>22330051920395</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>22330051920395</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>22330051920279</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>22330051920279</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>21330051920133</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12">
         <v>5</v>
       </c>
     </row>

--- a/grupos/6APV - Estadisticos 20242.xlsx
+++ b/grupos/6APV - Estadisticos 20242.xlsx
@@ -705,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <v>8</v>
@@ -782,7 +782,7 @@
         <v>9</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -818,7 +818,7 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U5">
         <v>10</v>
@@ -859,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I6">
         <v>8</v>
@@ -895,7 +895,7 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U6">
         <v>9</v>
@@ -936,7 +936,7 @@
         <v>8</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <v>9</v>
@@ -972,7 +972,7 @@
         <v>-1</v>
       </c>
       <c r="T7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U7">
         <v>10</v>
@@ -1013,7 +1013,7 @@
         <v>10</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <v>8</v>
@@ -1049,7 +1049,7 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U8">
         <v>9</v>
@@ -1090,7 +1090,7 @@
         <v>9</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -1126,7 +1126,7 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U9">
         <v>9</v>
@@ -1167,7 +1167,7 @@
         <v>9</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>10</v>
@@ -1203,7 +1203,7 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U10">
         <v>10</v>
@@ -1244,7 +1244,7 @@
         <v>8</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U11">
         <v>10</v>
@@ -1321,7 +1321,7 @@
         <v>5</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I12">
         <v>8</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -1434,7 +1434,7 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U13">
         <v>10</v>
@@ -1475,7 +1475,7 @@
         <v>10</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -1552,7 +1552,7 @@
         <v>8</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I15">
         <v>10</v>
@@ -1588,7 +1588,7 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U15">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>7</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <v>10</v>
@@ -1665,7 +1665,7 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U16">
         <v>10</v>
@@ -1706,7 +1706,7 @@
         <v>9</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I17">
         <v>9</v>
@@ -1742,7 +1742,7 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U17">
         <v>9</v>
@@ -1783,7 +1783,7 @@
         <v>5</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I18">
         <v>10</v>
@@ -1860,7 +1860,7 @@
         <v>5</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I19">
         <v>10</v>
@@ -1937,7 +1937,7 @@
         <v>5</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -1973,7 +1973,7 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U20">
         <v>9</v>
@@ -2127,7 +2127,7 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>96.40000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="I4">
         <v>90.90000000000001</v>
@@ -2145,7 +2145,7 @@
         <v>100</v>
       </c>
       <c r="N4">
-        <v>96.40000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="O4">
         <v>90.90000000000001</v>
@@ -2186,7 +2186,7 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>96.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="I5">
         <v>100</v>
@@ -2204,7 +2204,7 @@
         <v>100</v>
       </c>
       <c r="N5">
-        <v>96.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -2304,7 +2304,7 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <v>96.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="I7">
         <v>97</v>
@@ -2322,7 +2322,7 @@
         <v>100</v>
       </c>
       <c r="N7">
-        <v>96.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="O7">
         <v>97</v>
@@ -2363,7 +2363,7 @@
         <v>100</v>
       </c>
       <c r="H8">
-        <v>89.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="I8">
         <v>100</v>
@@ -2381,7 +2381,7 @@
         <v>100</v>
       </c>
       <c r="N8">
-        <v>89.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="O8">
         <v>100</v>
@@ -2422,7 +2422,7 @@
         <v>100</v>
       </c>
       <c r="H9">
-        <v>89.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="I9">
         <v>100</v>
@@ -2440,7 +2440,7 @@
         <v>100</v>
       </c>
       <c r="N9">
-        <v>89.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="O9">
         <v>100</v>
@@ -2481,7 +2481,7 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <v>96.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="I10">
         <v>100</v>
@@ -2499,7 +2499,7 @@
         <v>100</v>
       </c>
       <c r="N10">
-        <v>96.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="O10">
         <v>100</v>
@@ -2540,7 +2540,7 @@
         <v>100</v>
       </c>
       <c r="H11">
-        <v>96.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="I11">
         <v>100</v>
@@ -2558,7 +2558,7 @@
         <v>100</v>
       </c>
       <c r="N11">
-        <v>96.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="O11">
         <v>100</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <v>96.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="I12">
         <v>100</v>
@@ -2617,7 +2617,7 @@
         <v>100</v>
       </c>
       <c r="N12">
-        <v>96.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="O12">
         <v>100</v>
@@ -2776,7 +2776,7 @@
         <v>100</v>
       </c>
       <c r="H15">
-        <v>96.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="I15">
         <v>100</v>
@@ -2794,7 +2794,7 @@
         <v>100</v>
       </c>
       <c r="N15">
-        <v>96.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="O15">
         <v>100</v>
@@ -2835,7 +2835,7 @@
         <v>100</v>
       </c>
       <c r="H16">
-        <v>92.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="I16">
         <v>100</v>
@@ -2853,7 +2853,7 @@
         <v>100</v>
       </c>
       <c r="N16">
-        <v>92.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="O16">
         <v>100</v>
@@ -2894,7 +2894,7 @@
         <v>100</v>
       </c>
       <c r="H17">
-        <v>96.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="I17">
         <v>97</v>
@@ -2912,7 +2912,7 @@
         <v>100</v>
       </c>
       <c r="N17">
-        <v>96.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="O17">
         <v>97</v>
@@ -2953,7 +2953,7 @@
         <v>100</v>
       </c>
       <c r="H18">
-        <v>96.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="I18">
         <v>100</v>
@@ -2971,7 +2971,7 @@
         <v>100</v>
       </c>
       <c r="N18">
-        <v>96.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="O18">
         <v>100</v>
@@ -3012,7 +3012,7 @@
         <v>100</v>
       </c>
       <c r="H19">
-        <v>96.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="I19">
         <v>100</v>
@@ -3030,7 +3030,7 @@
         <v>100</v>
       </c>
       <c r="N19">
-        <v>96.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="O19">
         <v>100</v>
@@ -3071,7 +3071,7 @@
         <v>100</v>
       </c>
       <c r="H20">
-        <v>92.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="I20">
         <v>100</v>
@@ -3089,7 +3089,7 @@
         <v>100</v>
       </c>
       <c r="N20">
-        <v>92.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="O20">
         <v>100</v>
@@ -3217,7 +3217,7 @@
         <v>5.9</v>
       </c>
       <c r="H3">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="I3">
         <v>0</v>
